--- a/WebRoot/template/【模板】挑战奖金.xlsx
+++ b/WebRoot/template/【模板】挑战奖金.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2709,7 +2709,7 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G137">
       <formula1>"油品,非油品"</formula1>
     </dataValidation>
   </dataValidations>
